--- a/Texts/Город Сокровищ/Статуи Кангасханов.xlsx
+++ b/Texts/Город Сокровищ/Статуи Кангасханов.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t xml:space="preserve"> SCRIPT/D08P11A/enter05.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D16P31A/enter08.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D18P11A/enter06.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D19P11A/enter06.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D20P11A/enter06.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D22P11A/enter06.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D23P11A/enter06.ssb</t>
   </si>
 </sst>
 </file>
@@ -442,23 +460,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="29.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="26.21875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="43.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25" style="5" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -492,7 +510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -509,7 +527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -527,6 +545,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B5" s="4">
         <v>34</v>
       </c>
@@ -538,6 +559,31 @@
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Статуи Кангасханов.xlsx
+++ b/Texts/Город Сокровищ/Статуи Кангасханов.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>SCRIPT/D23P11A/enter06.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D24P11A/enter06.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D25P11A/enter06.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D27P11A/enter02.ssb</t>
   </si>
 </sst>
 </file>
@@ -460,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,6 +595,21 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Статуи Кангасханов.xlsx
+++ b/Texts/Город Сокровищ/Статуи Кангасханов.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -106,6 +106,27 @@
   </si>
   <si>
     <t>SCRIPT/D27P11A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D29P11A/enter03.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D31P11A/enter03.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P22A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P24A/enter03.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P26A/enter03.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P28A/enter02.ssb</t>
   </si>
 </sst>
 </file>
@@ -469,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,6 +631,41 @@
         <v>28</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Статуи Кангасханов.xlsx
+++ b/Texts/Город Сокровищ/Статуи Кангасханов.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>SCRIPT/D73P28A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D79P11A/enter03.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D38P12A/enter06.ssb</t>
   </si>
 </sst>
 </file>
@@ -490,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,6 +672,16 @@
         <v>35</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Статуи Кангасханов.xlsx
+++ b/Texts/Город Сокровищ/Статуи Кангасханов.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -133,6 +133,39 @@
   </si>
   <si>
     <t>SCRIPT/D38P12A/enter06.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P19P01A/enter07.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D54P11A/enter06.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D55P11A/enter06.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D56P11A/enter05.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D46P11A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D47P11A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D48P11A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D50P11A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D51P11A/enter03.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D52P11A/enter02.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D53P11A/enter02.ssb</t>
   </si>
 </sst>
 </file>
@@ -496,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,6 +715,61 @@
         <v>37</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
